--- a/Output/dDescrGrp.xlsx
+++ b/Output/dDescrGrp.xlsx
@@ -409,7 +409,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13.64 (3.36) | Mdn = 15</t>
+          <t>13.88 (2.85) | Mdn = 15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -419,7 +419,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>U(116) = 1400, p = 0.106</t>
+          <t>U(115) = 1400, p = 0.142</t>
         </is>
       </c>
     </row>

--- a/Output/dDescrGrp.xlsx
+++ b/Output/dDescrGrp.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>U(114) = 1748, p = 0.213</t>
+          <t>t(81.74) = 2.07, p = 0.041*</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>U(94) = 1836.5, p &lt; 0.001*</t>
+          <t>t(92.36) = 6.3, p &lt; 0.001*</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0 (0.05) | Mdn = 0</t>
+          <t>0.1 (3.22) | Mdn = -0.28</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.01 (0.08) | Mdn = 0</t>
+          <t>0.03 (4.93) | Mdn = -0.28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>U(116) = 1659, p = 0.901</t>
+          <t>U(116) = 1655, p = 0.884</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>U(28) = 64.5, p = 0.529</t>
+          <t>t(16.69) = 0.34, p = 0.738</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>U(28) = 90.5, p = 0.422</t>
+          <t>t(10.69) = 0.86, p = 0.41</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0 (0.07) | Mdn = -0.01</t>
+          <t>0.2 (6.05) | Mdn = -0.69</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.01 (0.09) | Mdn = -0.01</t>
+          <t>0 (5.75) | Mdn = -0.62</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>U(116) = 1727.5, p = 0.804</t>
+          <t>U(116) = 1729.5, p = 0.795</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>U(116) = 1214.5, p = 0.009*</t>
+          <t>t(113.9) = 2.33, p = 0.022*</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>U(115) = 2152, p = 0.005*</t>
+          <t>t(107.37) = 2.97, p = 0.004*</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>50.79 (4.38) | Mdn = 51</t>
+          <t>42.36 (12.3) | Mdn = 41.5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>49.98 (6.28) | Mdn = 50.5</t>
+          <t>39.72 (11.18) | Mdn = 38.5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>U(114) = 1741, p = 0.508</t>
+          <t>t(110.12) = 1.2, p = 0.235</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>U(116) = 1808, p = 0.387</t>
+          <t>t(108.08) = 1.31, p = 0.192</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>U(116) = 1730.5, p = 0.79</t>
+          <t>t(113.51) = 0.26, p = 0.792</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>U(116) = 1898, p = 0.231</t>
+          <t>t(113.51) = 0.96, p = 0.34</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>U(116) = 2320.5, p &lt; 0.001*</t>
+          <t>t(113.95) = 3.56, p = 0.001*</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>U(28) = 93, p = 0.372</t>
+          <t>t(13.57) = 0.76, p = 0.462</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>U(28) = 70.5, p = 0.742</t>
+          <t>t(17.84) = 0.47, p = 0.643</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>U(28) = 66, p = 0.575</t>
+          <t>t(24.46) = 1.1, p = 0.281</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.08 (0.05) | Mdn = 0.07</t>
+          <t>6.14 (4.28) | Mdn = 4.83</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.1 (0.06) | Mdn = 0.08</t>
+          <t>7.73 (5.21) | Mdn = 5.79</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.08 (0.06) | Mdn = 0.07</t>
+          <t>6.1 (5.55) | Mdn = 4.83</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.09 (0.07) | Mdn = 0.07</t>
+          <t>7.05 (6.52) | Mdn = 4.69</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.08 (0.06) | Mdn = 0.06</t>
+          <t>6.2 (5.79) | Mdn = 4.14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.09 (0.07) | Mdn = 0.07</t>
+          <t>7.09 (6.14) | Mdn = 5.1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.08 (0.09) | Mdn = 0.05</t>
+          <t>6.43 (11.07) | Mdn = 3.59</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.1 (0.09) | Mdn = 0.07</t>
+          <t>7.71 (8.4) | Mdn = 4.69</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>U(116) = 1832, p = 0.409</t>
+          <t>t(112.99) = 0.95, p = 0.344</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>U(116) = 1582, p = 0.583</t>
+          <t>t(112.85) = 0.67, p = 0.502</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>U(116) = 1449, p = 0.199</t>
+          <t>t(109.79) = 1.74, p = 0.085</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>U(116) = 1743, p = 0.738</t>
+          <t>t(112.57) = 0.53, p = 0.599</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>U(116) = 1257, p = 0.019*</t>
+          <t>t(113.05) = 2.56, p = 0.012*</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>U(116) = 1755, p = 0.689</t>
+          <t>t(111.74) = 0.61, p = 0.543</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>U(116) = 1495, p = 0.303</t>
+          <t>t(113.9) = 1.29, p = 0.201</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>U(116) = 1276.5, p = 0.025*</t>
+          <t>t(114) = 2.34, p = 0.021*</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>U(116) = 1432, p = 0.168</t>
+          <t>t(108.6) = 1.86, p = 0.066</t>
         </is>
       </c>
     </row>

--- a/Output/dDescrGrp.xlsx
+++ b/Output/dDescrGrp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2139,6 +2139,50 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MBv</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2.37 (2.02) | Mdn = 1.81</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2.53 (2.1) | Mdn = 1.64</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>U(116) = 1731, p = 0.789</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MFv</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2.71 (1.82) | Mdn = 2.09</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2.55 (2.15) | Mdn = 1.86</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>U(116) = 1866, p = 0.311</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
